--- a/results/mod4.galtan.nonlinear.slopes.COMB.xlsx
+++ b/results/mod4.galtan.nonlinear.slopes.COMB.xlsx
@@ -422,25 +422,25 @@
         <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>0.161905390718968</v>
+        <v>0.161923619424146</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1143021913766</v>
+        <v>0.114300645678457</v>
       </c>
       <c r="E2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0621227877331732</v>
+        <v>-0.0621015295153031</v>
       </c>
       <c r="G2" t="n">
-        <v>0.385933569171109</v>
+        <v>0.385948768363594</v>
       </c>
       <c r="H2" t="n">
-        <v>1.41646795016839</v>
+        <v>1.416646585529</v>
       </c>
       <c r="I2" t="n">
-        <v>0.156638541419019</v>
+        <v>0.156586281064767</v>
       </c>
     </row>
     <row r="3">
@@ -451,25 +451,25 @@
         <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0680579439224386</v>
+        <v>0.0680570911240643</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0666771680947564</v>
+        <v>0.0666766283759089</v>
       </c>
       <c r="E3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.0626269041344071</v>
+        <v>-0.0626266991032785</v>
       </c>
       <c r="G3" t="n">
-        <v>0.198742791979284</v>
+        <v>0.198740881351407</v>
       </c>
       <c r="H3" t="n">
-        <v>1.02070837540251</v>
+        <v>1.02070384753669</v>
       </c>
       <c r="I3" t="n">
-        <v>0.307392625232039</v>
+        <v>0.307394771088748</v>
       </c>
     </row>
     <row r="4">
@@ -480,25 +480,25 @@
         <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.332146487266666</v>
+        <v>-0.332156508724792</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0930209635898658</v>
+        <v>0.093019728586378</v>
       </c>
       <c r="E4" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.514464225710015</v>
+        <v>-0.514471826605784</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.149828748823317</v>
+        <v>-0.149841190843801</v>
       </c>
       <c r="H4" t="n">
-        <v>-3.57066272427704</v>
+        <v>-3.57081786597939</v>
       </c>
       <c r="I4" t="n">
-        <v>0.000356079159583915</v>
+        <v>0.000355868296355135</v>
       </c>
     </row>
     <row r="5">
@@ -509,25 +509,25 @@
         <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.480375011164692</v>
+        <v>-0.480394630622766</v>
       </c>
       <c r="D5" t="n">
-        <v>0.109772357306226</v>
+        <v>0.109770569019182</v>
       </c>
       <c r="E5" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.695524877982958</v>
+        <v>-0.695540992462832</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.265225144346427</v>
+        <v>-0.265248268782701</v>
       </c>
       <c r="H5" t="n">
-        <v>-4.37610180698421</v>
+        <v>-4.37635183014144</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0000120820599620643</v>
+        <v>0.0000120682161696316</v>
       </c>
     </row>
     <row r="6">
@@ -538,25 +538,25 @@
         <v>13</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0541006680740251</v>
+        <v>-0.0541025671202261</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0656096489841397</v>
+        <v>0.0656091711659699</v>
       </c>
       <c r="E6" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.182693217121254</v>
+        <v>-0.182694179661051</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0744918809732036</v>
+        <v>0.0744890454205987</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.824584019449688</v>
+        <v>-0.824618969554793</v>
       </c>
       <c r="I6" t="n">
-        <v>0.409607797146808</v>
+        <v>0.409587948292045</v>
       </c>
     </row>
     <row r="7">
@@ -567,25 +567,25 @@
         <v>13</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0819582699176013</v>
+        <v>0.0819779786738411</v>
       </c>
       <c r="D7" t="n">
-        <v>0.102559272033783</v>
+        <v>0.102557755168391</v>
       </c>
       <c r="E7" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.11905420954926</v>
+        <v>-0.119031527791482</v>
       </c>
       <c r="G7" t="n">
-        <v>0.282970749384463</v>
+        <v>0.282987485139164</v>
       </c>
       <c r="H7" t="n">
-        <v>0.799130768894343</v>
+        <v>0.799334760586758</v>
       </c>
       <c r="I7" t="n">
-        <v>0.424214590065458</v>
+        <v>0.424096328194596</v>
       </c>
     </row>
   </sheetData>
